--- a/files/[Plantilla] - CargaPU ESSA.xlsx
+++ b/files/[Plantilla] - CargaPU ESSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himpe\Desktop\datosPruebaApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/app_nasa_power/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DF2AA9-2259-4FE1-B9F4-5967A7684655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{C5DF2AA9-2259-4FE1-B9F4-5967A7684655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A481CA06-EC60-4B98-8C1B-AF41B55D47CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E953A5FD-5DBD-40B6-8922-4E1D24DCA23E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hora</t>
   </si>
@@ -44,14 +44,26 @@
     <t>Comercial</t>
   </si>
   <si>
-    <t>Residencial</t>
+    <t>Residencial 1 y 2</t>
+  </si>
+  <si>
+    <t>Residencial 3</t>
+  </si>
+  <si>
+    <t>Residencial 4</t>
+  </si>
+  <si>
+    <t>Residencial 5</t>
+  </si>
+  <si>
+    <t>Residencial 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +87,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,12 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,295 +488,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F45B40-C61B-40DE-992F-2C138F28DAEC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.05</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.45</v>
+      </c>
+      <c r="G2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.05</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>0.31</v>
+      </c>
+      <c r="D3">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3">
+        <v>0.41</v>
+      </c>
+      <c r="G3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <v>0.26</v>
+      </c>
+      <c r="F4">
+        <v>0.38</v>
+      </c>
+      <c r="G4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="D5">
+        <v>0.27</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.44</v>
+      </c>
+      <c r="G5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>0.31</v>
+      </c>
+      <c r="D6">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+      <c r="F6">
+        <v>0.39</v>
+      </c>
+      <c r="G6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>0.33</v>
+      </c>
+      <c r="D7">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7">
+        <v>0.44</v>
+      </c>
+      <c r="F7">
+        <v>0.52</v>
+      </c>
+      <c r="G7">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.05</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <v>0.38</v>
+      </c>
+      <c r="D8">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8">
+        <v>0.69</v>
+      </c>
+      <c r="F8">
+        <v>0.68</v>
+      </c>
+      <c r="G8">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9">
+        <v>0.44</v>
+      </c>
+      <c r="F9">
+        <v>0.68</v>
+      </c>
+      <c r="G9">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>0.41</v>
+      </c>
+      <c r="D10">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10">
+        <v>0.44</v>
+      </c>
+      <c r="F10">
+        <v>0.59</v>
+      </c>
+      <c r="G10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.76</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>0.47</v>
+      </c>
+      <c r="D11">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="E11">
+        <v>0.36</v>
+      </c>
+      <c r="F11">
+        <v>0.59</v>
+      </c>
+      <c r="G11">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.91</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
+        <v>0.53</v>
+      </c>
+      <c r="D12">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12">
+        <v>0.38</v>
+      </c>
+      <c r="F12">
+        <v>0.63</v>
+      </c>
+      <c r="G12">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.93</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D13">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E13">
+        <v>0.51</v>
+      </c>
+      <c r="F13">
+        <v>0.54</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.72</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
+        <v>0.54</v>
+      </c>
+      <c r="D14">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+      <c r="F14">
+        <v>0.59</v>
+      </c>
+      <c r="G14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15">
+        <v>0.38</v>
+      </c>
+      <c r="F15">
+        <v>0.62</v>
+      </c>
+      <c r="G15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
+        <v>0.47</v>
+      </c>
+      <c r="D16">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E16">
+        <v>0.37</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.95</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
+        <v>0.42</v>
+      </c>
+      <c r="D17">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="E17">
+        <v>0.41</v>
+      </c>
+      <c r="F17">
+        <v>0.61</v>
+      </c>
+      <c r="G17">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
+        <v>0.52</v>
+      </c>
+      <c r="D18">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="E18">
+        <v>0.49</v>
+      </c>
+      <c r="F18">
+        <v>0.48</v>
+      </c>
+      <c r="G18">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.98</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
+        <v>0.61</v>
+      </c>
+      <c r="D19">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E19">
+        <v>0.34</v>
+      </c>
+      <c r="F19">
+        <v>0.54</v>
+      </c>
+      <c r="G19">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.85</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
+        <v>0.92</v>
+      </c>
+      <c r="D20">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="E20">
+        <v>0.61</v>
+      </c>
+      <c r="F20">
+        <v>0.72</v>
+      </c>
+      <c r="G20">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.61</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E21">
+        <v>0.81</v>
+      </c>
+      <c r="F21">
+        <v>0.82</v>
+      </c>
+      <c r="G21">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.16</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
+        <v>0.9</v>
+      </c>
+      <c r="D22">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
+        <v>0.75</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="E23">
+        <v>0.86</v>
+      </c>
+      <c r="F23">
+        <v>0.78</v>
+      </c>
+      <c r="G23">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.06</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="C24">
+        <v>0.63</v>
+      </c>
+      <c r="D24">
+        <v>0.64</v>
+      </c>
+      <c r="E24">
+        <v>0.69</v>
+      </c>
+      <c r="F24">
+        <v>0.67</v>
+      </c>
+      <c r="G24">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.05</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.31</v>
+      <c r="C25">
+        <v>0.45</v>
+      </c>
+      <c r="D25">
+        <v>0.37</v>
+      </c>
+      <c r="E25">
+        <v>0.36</v>
+      </c>
+      <c r="F25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>